--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="132" windowWidth="22932" windowHeight="9240" activeTab="1"/>
+    <workbookView xWindow="96" yWindow="132" windowWidth="22932" windowHeight="9240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>amount</t>
   </si>
@@ -35,6 +35,12 @@
   <si>
     <t>divider</t>
   </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>divisor</t>
+  </si>
 </sst>
 </file>
 
@@ -49,7 +55,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -68,6 +74,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -81,10 +93,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,7 +635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -672,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <f>MOD(A3,B3)</f>
+        <f t="shared" ref="C3:C12" si="0">MOD(A3,B3)</f>
         <v>1</v>
       </c>
       <c r="E3">
@@ -691,7 +704,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <f>MOD(A4,B4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E4">
@@ -706,7 +719,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <f>MOD(A5,B5)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E5">
@@ -721,7 +734,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <f>MOD(A6,B6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E6">
@@ -736,7 +749,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <f>MOD(A7,B7)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E7">
@@ -751,7 +764,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <f>MOD(A8,B8)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="E8">
@@ -766,7 +779,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <f>MOD(A9,B9)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E9">
@@ -781,7 +794,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <f>MOD(A10,B10)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E10">
@@ -796,7 +809,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <f>MOD(A11,B11)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E11">
@@ -811,7 +824,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <f>MOD(A12,B12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E12">
@@ -836,12 +849,170 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="E6" activeCellId="2" sqref="E2 E3 E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="E9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="E10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="E11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="E12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="E13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="E14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="E15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="E16">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>